--- a/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FB331E-AEA0-4E2F-A47B-8FDE6BA23269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA84E64-6C74-4A52-8034-112670EAE5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{895795BC-8B49-47B3-98A3-2C55111B7CD9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B7926932-3FF2-43B7-86BC-93E338A91BEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,159 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
     <t>8,65%</t>
   </si>
   <si>
@@ -116,33 +248,6 @@
     <t>9,31%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
     <t>40,16%</t>
   </si>
   <si>
@@ -170,24 +275,6 @@
     <t>48,85%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>49,43%</t>
   </si>
   <si>
@@ -215,91 +302,43 @@
     <t>54,63%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>8,59%</t>
@@ -329,30 +368,6 @@
     <t>8,71%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
     <t>38,97%</t>
   </si>
   <si>
@@ -378,21 +393,6 @@
   </si>
   <si>
     <t>46,98%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
   </si>
   <si>
     <t>50,95%</t>
@@ -811,7 +811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9A888-1FF8-4F8C-B72A-6EBE24ED7297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D4BBB3-6906-4587-A59B-4315C84BA2BC}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1201,10 +1201,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>19462</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1216,34 +1216,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>7035</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>34</v>
-      </c>
-      <c r="N10" s="7">
-        <v>26497</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1252,49 +1252,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3370</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>4520</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1303,49 +1303,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>90343</v>
+        <v>3415</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>77088</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>167431</v>
+        <v>3415</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,49 +1354,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>586</v>
+        <v>13467</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>14574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>586</v>
+        <v>28041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,49 +1405,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>111219</v>
+        <v>24494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>83273</v>
+        <v>19427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="7">
         <v>55</v>
       </c>
-      <c r="M14" s="7">
-        <v>237</v>
-      </c>
       <c r="N14" s="7">
-        <v>194491</v>
+        <v>43921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,72 +1456,72 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>224980</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>393525</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>3415</v>
+        <v>586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1530,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>3415</v>
+        <v>586</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,49 +1560,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3370</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>4520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,49 +1611,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>13467</v>
+        <v>19462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>14574</v>
+        <v>7035</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N18" s="7">
-        <v>28041</v>
+        <v>26497</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,49 +1662,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>90343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>77088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>167431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,10 +1713,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D20" s="7">
-        <v>24494</v>
+        <v>111219</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>79</v>
@@ -1728,10 +1728,10 @@
         <v>81</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>19427</v>
+        <v>83273</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>82</v>
@@ -1743,10 +1743,10 @@
         <v>84</v>
       </c>
       <c r="M20" s="7">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="N20" s="7">
-        <v>43921</v>
+        <v>194491</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>85</v>
@@ -1764,49 +1764,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>224980</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>482</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>393525</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,49 +1817,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>22878</v>
+        <v>586</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7035</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>586</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="7">
-        <v>38</v>
-      </c>
-      <c r="N22" s="7">
-        <v>29912</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1874,13 @@
         <v>3370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -1889,13 +1889,13 @@
         <v>1150</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -1904,13 +1904,13 @@
         <v>4520</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,49 +1919,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>103810</v>
+        <v>22878</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7035</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>38</v>
+      </c>
+      <c r="N24" s="7">
+        <v>29912</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="7">
-        <v>120</v>
-      </c>
-      <c r="I24" s="7">
-        <v>91662</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="7">
-        <v>241</v>
-      </c>
-      <c r="N24" s="7">
-        <v>195471</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,46 +1970,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7">
-        <v>586</v>
+        <v>103810</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>120</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91662</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>241</v>
+      </c>
+      <c r="N25" s="7">
+        <v>195471</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>586</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>118</v>
@@ -2078,13 +2078,13 @@
         <v>266356</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2093,13 +2093,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>576</v>
@@ -2108,13 +2108,13 @@
         <v>468901</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA84E64-6C74-4A52-8034-112670EAE5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3542F29A-ECE8-414E-91BC-96B3719E6DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B7926932-3FF2-43B7-86BC-93E338A91BEF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A427E46C-05A6-46B0-ADE6-FF8808AB42D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,247 +65,361 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -314,112 +428,10 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -526,39 +538,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -610,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -721,13 +733,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -736,6 +741,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -800,19 +812,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D4BBB3-6906-4587-A59B-4315C84BA2BC}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A24738-DAC7-4D14-943D-EE0D6BC68F12}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1203,47 +1235,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1254,47 +1280,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1303,49 +1323,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,49 +1368,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7">
-        <v>13467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,49 +1413,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7">
-        <v>24494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>55</v>
-      </c>
-      <c r="N14" s="7">
-        <v>43921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,102 +1458,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>586</v>
+        <v>58857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>41242</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="N16" s="7">
-        <v>586</v>
+        <v>100098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,49 +1556,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>3370</v>
+        <v>32203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>1150</v>
+        <v>29599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7">
-        <v>4520</v>
+        <v>61801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,49 +1607,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>19462</v>
+        <v>7465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>7035</v>
+        <v>825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>26497</v>
+        <v>8289</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,49 +1658,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>90343</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>77088</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>167431</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,49 +1709,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>111219</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>83273</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>194491</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,102 +1760,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7">
-        <v>224980</v>
+        <v>98524</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>482</v>
+        <v>213</v>
       </c>
       <c r="N21" s="7">
-        <v>393525</v>
+        <v>170189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7">
-        <v>586</v>
+        <v>76855</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>61458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="N22" s="7">
-        <v>586</v>
+        <v>138313</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,49 +1864,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="D23" s="7">
-        <v>3370</v>
+        <v>71607</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I23" s="7">
-        <v>1150</v>
+        <v>62062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="N23" s="7">
-        <v>4520</v>
+        <v>133669</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,49 +1915,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>15413</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6210</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="7">
         <v>27</v>
       </c>
-      <c r="D24" s="7">
-        <v>22878</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7035</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="7">
-        <v>38</v>
-      </c>
       <c r="N24" s="7">
-        <v>29912</v>
+        <v>21623</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,49 +1966,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>103810</v>
+        <v>3370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="H25" s="7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>91662</v>
+        <v>1150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>195471</v>
+        <v>4520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,49 +2017,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>135712</v>
+        <v>586</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>102700</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="M26" s="7">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>238412</v>
+        <v>586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,55 +2068,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>154</v>
+      </c>
+      <c r="D28" s="7">
+        <v>135712</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="7">
+        <v>138</v>
+      </c>
+      <c r="I28" s="7">
+        <v>102700</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="7">
+        <v>292</v>
+      </c>
+      <c r="N28" s="7">
+        <v>238412</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>121</v>
+      </c>
+      <c r="D29" s="7">
+        <v>103810</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="7">
+        <v>120</v>
+      </c>
+      <c r="I29" s="7">
+        <v>91662</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="7">
+        <v>241</v>
+      </c>
+      <c r="N29" s="7">
+        <v>195471</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22878</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="7">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7035</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="7">
+        <v>38</v>
+      </c>
+      <c r="N30" s="7">
+        <v>29912</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3370</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1150</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4520</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>586</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>586</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>266356</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="7">
         <v>576</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>468901</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>46</v>
+      <c r="O33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3542F29A-ECE8-414E-91BC-96B3719E6DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{554FE4F9-D476-4B86-A59C-39A45E410D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A427E46C-05A6-46B0-ADE6-FF8808AB42D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{133DB587-25D9-4F71-82FF-A8AFF8E2A72E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -95,64 +95,64 @@
     <t>59,74%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>57,55%</t>
   </si>
   <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
   </si>
   <si>
     <t>58,82%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>41,3%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
   </si>
   <si>
     <t>36,31%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -161,16 +161,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>7,08%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>0%</t>
@@ -194,112 +194,112 @@
     <t>45,79%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>46,96%</t>
   </si>
   <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>46,3%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>44,75%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>1,09%</t>
@@ -308,88 +308,88 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,96%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>50,7%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>50,84%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>41,69%</t>
   </si>
   <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -398,37 +398,31 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>0,71%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -843,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A24738-DAC7-4D14-943D-EE0D6BC68F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B458993D-7575-406E-8456-FEC21B56D022}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,13 +2304,13 @@
         <v>4520</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2325,13 @@
         <v>586</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2352,7 +2346,7 @@
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2361,13 +2355,13 @@
         <v>586</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,7 +2417,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{554FE4F9-D476-4B86-A59C-39A45E410D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BACBDF3D-14AD-4D3A-8B6A-8183CFEE8BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{133DB587-25D9-4F71-82FF-A8AFF8E2A72E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{01193399-9E3C-4C0D-B6F0-F302C5D1A30C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
-  <si>
-    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="136">
+  <si>
+    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -92,337 +92,355 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -837,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B458993D-7575-406E-8456-FEC21B56D022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F1DC55-1CEE-4BF8-A6A5-15D1A07B4473}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1499,10 +1517,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>58857</v>
+        <v>27858</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1514,10 +1532,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I16" s="7">
-        <v>41242</v>
+        <v>47631</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1529,10 +1547,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="N16" s="7">
-        <v>100098</v>
+        <v>75489</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1550,10 +1568,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>32203</v>
+        <v>31940</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1565,10 +1583,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>29599</v>
+        <v>40035</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1580,10 +1598,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N17" s="7">
-        <v>61801</v>
+        <v>71975</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1601,10 +1619,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>7465</v>
+        <v>8127</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -1616,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>825</v>
+        <v>10531</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -1631,10 +1649,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N18" s="7">
-        <v>8289</v>
+        <v>18658</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -1658,43 +1676,43 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,102 +1772,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7">
-        <v>98524</v>
+        <v>67925</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>170189</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>76855</v>
+        <v>45694</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>61458</v>
+        <v>83317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N22" s="7">
-        <v>138313</v>
+        <v>129011</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,49 +1876,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>71607</v>
+        <v>80393</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I23" s="7">
-        <v>62062</v>
+        <v>62055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N23" s="7">
-        <v>133669</v>
+        <v>142448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,49 +1927,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>15413</v>
+        <v>14006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>6210</v>
+        <v>23063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>21623</v>
+        <v>37069</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,49 +1978,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3370</v>
+        <v>2454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>1150</v>
+        <v>3221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>4520</v>
+        <v>5675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,49 +2029,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
-        <v>586</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>586</v>
+        <v>1127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,49 +2080,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>188</v>
       </c>
-      <c r="D27" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>363</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>315329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,49 +2133,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="D28" s="7">
-        <v>135712</v>
+        <v>73552</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H28" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I28" s="7">
-        <v>102700</v>
+        <v>130948</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M28" s="7">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="N28" s="7">
-        <v>238412</v>
+        <v>204500</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,49 +2184,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>123</v>
+      </c>
+      <c r="D29" s="7">
+        <v>112333</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="7">
         <v>121</v>
       </c>
-      <c r="D29" s="7">
-        <v>103810</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="7">
-        <v>120</v>
-      </c>
       <c r="I29" s="7">
-        <v>91662</v>
+        <v>102090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M29" s="7">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N29" s="7">
-        <v>195471</v>
+        <v>214422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,49 +2235,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="7">
-        <v>22878</v>
+        <v>22133</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H30" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7">
-        <v>7035</v>
+        <v>33594</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N30" s="7">
-        <v>29912</v>
+        <v>55727</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,49 +2286,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>3370</v>
+        <v>2454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>1150</v>
+        <v>3221</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>4520</v>
+        <v>5675</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,49 +2337,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>586</v>
+        <v>2295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,54 +2388,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>266356</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>468901</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
